--- a/data/financial_statements/soci/SRE.xlsx
+++ b/data/financial_statements/soci/SRE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
+        <v>3617000000</v>
+      </c>
+      <c r="C2">
+        <v>3547000000</v>
+      </c>
+      <c r="D2">
+        <v>3820000000</v>
+      </c>
+      <c r="E2">
         <v>3844000000</v>
       </c>
-      <c r="C2">
-        <v>3697000000</v>
-      </c>
-      <c r="D2">
-        <v>3891000000</v>
-      </c>
-      <c r="E2">
-        <v>3703000000</v>
-      </c>
       <c r="F2">
-        <v>3167000000</v>
+        <v>3013000000</v>
       </c>
       <c r="G2">
         <v>2741000000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.2138</v>
+        <v>0.2005</v>
       </c>
       <c r="C3">
-        <v>0.3488</v>
+        <v>0.2941</v>
       </c>
       <c r="D3">
-        <v>0.1939</v>
+        <v>0.1721</v>
       </c>
       <c r="E3">
-        <v>0.1678</v>
+        <v>0.2122</v>
       </c>
       <c r="F3">
-        <v>0.1978</v>
+        <v>0.1396</v>
       </c>
       <c r="G3">
         <v>0.0851</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2859000000</v>
+        <v>1152000000</v>
       </c>
       <c r="C4">
-        <v>2703000000</v>
+        <v>1068000000</v>
       </c>
       <c r="D4">
-        <v>2739000000</v>
+        <v>1142000000</v>
       </c>
       <c r="E4">
-        <v>2802000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F4">
-        <v>2376000000</v>
+        <v>814000000</v>
       </c>
       <c r="G4">
         <v>664000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>985000000</v>
+        <v>2465000000</v>
       </c>
       <c r="C5">
-        <v>994000000</v>
+        <v>2479000000</v>
       </c>
       <c r="D5">
-        <v>1152000000</v>
+        <v>2678000000</v>
       </c>
       <c r="E5">
-        <v>901000000</v>
+        <v>2794000000</v>
       </c>
       <c r="F5">
-        <v>791000000</v>
+        <v>2199000000</v>
       </c>
       <c r="G5">
         <v>2077000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1368000000</v>
@@ -1127,7 +1238,7 @@
         <v>1394000000</v>
       </c>
       <c r="F6">
-        <v>151000000</v>
+        <v>1224000000</v>
       </c>
       <c r="G6">
         <v>1162000000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>469000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>289000000</v>
@@ -1396,23 +1507,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>18000000</v>
+        <v>282000000</v>
       </c>
       <c r="C9">
-        <v>15000000</v>
+        <v>271000000</v>
       </c>
       <c r="D9">
-        <v>25000000</v>
+        <v>243000000</v>
       </c>
       <c r="E9">
-        <v>19000000</v>
+        <v>422000000</v>
       </c>
       <c r="F9">
-        <v>16000000</v>
+        <v>259000000</v>
       </c>
       <c r="G9">
         <v>258000000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>327000000</v>
+        <v>-304000000</v>
       </c>
       <c r="C10">
-        <v>230000000</v>
+        <v>-257000000</v>
       </c>
       <c r="D10">
-        <v>184000000</v>
+        <v>-180000000</v>
       </c>
       <c r="E10">
-        <v>-120000000</v>
+        <v>-364000000</v>
       </c>
       <c r="F10">
-        <v>1660000000</v>
+        <v>-298000000</v>
       </c>
       <c r="G10">
         <v>-171000000</v>
@@ -1637,8 +1748,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>165000000</v>
@@ -1759,8 +1870,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>21000000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>144000000</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>417000000</v>
@@ -2125,8 +2236,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>11000000</v>
@@ -2208,8 +2319,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>65000000</v>
@@ -2330,8 +2441,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>485000000</v>
@@ -2452,20 +2563,20 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="C18">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D18">
         <v>1.93</v>
       </c>
       <c r="E18">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F18">
         <v>-2.03</v>
@@ -2574,8 +2685,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1.53</v>
@@ -2696,23 +2807,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>315000000</v>
+        <v>314724000</v>
       </c>
       <c r="C20">
-        <v>315000000</v>
+        <v>314845000</v>
       </c>
       <c r="D20">
-        <v>316000000</v>
+        <v>316353000</v>
       </c>
       <c r="E20">
-        <v>319000000</v>
+        <v>311755000</v>
       </c>
       <c r="F20">
-        <v>319000000</v>
+        <v>319144000</v>
       </c>
       <c r="G20">
         <v>307800000</v>
@@ -2818,23 +2929,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>316000000</v>
+        <v>316087000</v>
       </c>
       <c r="C21">
-        <v>316000000</v>
+        <v>315867000</v>
       </c>
       <c r="D21">
-        <v>317000000</v>
+        <v>317434000</v>
       </c>
       <c r="E21">
-        <v>320000000</v>
+        <v>313036000</v>
       </c>
       <c r="F21">
-        <v>319000000</v>
+        <v>319144000</v>
       </c>
       <c r="G21">
         <v>308607000</v>
@@ -2940,23 +3051,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2562</v>
+        <v>0.6815</v>
       </c>
       <c r="C22">
-        <v>0.2689</v>
+        <v>0.6989</v>
       </c>
       <c r="D22">
-        <v>0.2961</v>
+        <v>0.701</v>
       </c>
       <c r="E22">
-        <v>0.2433</v>
+        <v>0.7268</v>
       </c>
       <c r="F22">
-        <v>0.2498</v>
+        <v>0.7298</v>
       </c>
       <c r="G22">
         <v>0.7578</v>
@@ -3062,23 +3173,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.122</v>
+        <v>0.1297</v>
       </c>
       <c r="C23">
-        <v>0.168</v>
+        <v>0.1751</v>
       </c>
       <c r="D23">
-        <v>0.2172</v>
+        <v>0.2212</v>
       </c>
       <c r="E23">
-        <v>0.2428</v>
+        <v>0.2339</v>
       </c>
       <c r="F23">
-        <v>-0.3369</v>
+        <v>-0.3541</v>
       </c>
       <c r="G23">
         <v>0.1649</v>
@@ -3184,23 +3295,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.0429</v>
+        <v>0.0456</v>
       </c>
       <c r="C24">
-        <v>0.0985</v>
+        <v>0.1026</v>
       </c>
       <c r="D24">
-        <v>0.1709</v>
+        <v>0.1741</v>
       </c>
       <c r="E24">
-        <v>0.1445</v>
+        <v>0.1392</v>
       </c>
       <c r="F24">
-        <v>-0.431</v>
+        <v>-0.453</v>
       </c>
       <c r="G24">
         <v>0.1025</v>
@@ -3306,23 +3417,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.1262</v>
+        <v>0.1341</v>
       </c>
       <c r="C25">
-        <v>0.1512</v>
+        <v>0.1576</v>
       </c>
       <c r="D25">
-        <v>0.1573</v>
+        <v>0.1602</v>
       </c>
       <c r="E25">
-        <v>0.1631</v>
+        <v>0.1571</v>
       </c>
       <c r="F25">
-        <v>-0.2046</v>
+        <v>-0.2151</v>
       </c>
       <c r="G25">
         <v>0.1547</v>
@@ -3428,23 +3539,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1329000000</v>
+        <v>975000000</v>
       </c>
       <c r="C26">
-        <v>1345000000</v>
+        <v>1122000000</v>
       </c>
       <c r="D26">
-        <v>1483000000</v>
+        <v>1338000000</v>
       </c>
       <c r="E26">
-        <v>1226000000</v>
+        <v>1378000000</v>
       </c>
       <c r="F26">
-        <v>1111000000</v>
+        <v>-596000000</v>
       </c>
       <c r="G26">
         <v>915000000</v>
@@ -3550,8 +3661,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>469000000</v>
@@ -3672,8 +3783,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>561000000</v>
@@ -3794,8 +3905,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3841,8 +3952,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>561000000</v>
@@ -3963,8 +4074,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.7825</v>
@@ -4085,8 +4196,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.7748</v>
@@ -4207,8 +4318,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I33">
         <v>0.06</v>
@@ -4248,8 +4359,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I34">
         <v>0.03</v>
@@ -4289,8 +4400,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.7825</v>
@@ -4411,8 +4522,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1.7748</v>
@@ -4533,8 +4644,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>316087000</v>
@@ -4655,23 +4766,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.3457</v>
+        <v>0.2696</v>
       </c>
       <c r="C38">
-        <v>0.3638</v>
+        <v>0.3163</v>
       </c>
       <c r="D38">
-        <v>0.3811</v>
+        <v>0.3503</v>
       </c>
       <c r="E38">
-        <v>0.3311</v>
+        <v>0.3585</v>
       </c>
       <c r="F38">
-        <v>0.3508</v>
+        <v>-0.1978</v>
       </c>
       <c r="G38">
         <v>0.3338</v>
@@ -4777,23 +4888,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>-0.2365</v>
+        <v>-0.2513</v>
       </c>
       <c r="C39">
-        <v>0.2048</v>
+        <v>0.2134</v>
       </c>
       <c r="D39">
-        <v>0.413</v>
+        <v>0.4207</v>
       </c>
       <c r="E39">
-        <v>0.2325</v>
+        <v>0.224</v>
       </c>
       <c r="F39">
-        <v>0.2292</v>
+        <v>0.241</v>
       </c>
       <c r="G39">
         <v>0.2747</v>
